--- a/global.xlsx
+++ b/global.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>date</t>
+  </si>
   <si>
     <t>total_cases</t>
   </si>
@@ -55,13 +58,148 @@
     <t>deaths_81</t>
   </si>
   <si>
-    <t>total_recoveries</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>date</t>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2020-12-29</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>2021-01-02</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
+    <t>2021-01-10</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>2021-01-14</t>
+  </si>
+  <si>
+    <t>2021-01-15</t>
+  </si>
+  <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
+    <t>2021-01-17</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-01-19</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>2021-01-21</t>
+  </si>
+  <si>
+    <t>2021-01-22</t>
+  </si>
+  <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
+    <t>2021-01-24</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>2021-01-26</t>
+  </si>
+  <si>
+    <t>2021-01-27</t>
+  </si>
+  <si>
+    <t>2021-01-28</t>
+  </si>
+  <si>
+    <t>2021-01-29</t>
+  </si>
+  <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>2021-02-03</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
+    <t>2021-02-07</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>2021-02-09</t>
   </si>
   <si>
     <t>2021-02-10</t>
@@ -425,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,61 +612,2205 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B2">
+        <v>1240002</v>
+      </c>
+      <c r="C2">
+        <v>26807</v>
+      </c>
+      <c r="D2">
+        <v>243</v>
+      </c>
+      <c r="E2">
+        <v>309</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>40</v>
+      </c>
+      <c r="L2">
+        <v>127</v>
+      </c>
+      <c r="M2">
+        <v>151</v>
+      </c>
+      <c r="N2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2">
+      <c r="B3">
+        <v>1248924</v>
+      </c>
+      <c r="C3">
+        <v>27051</v>
+      </c>
+      <c r="D3">
+        <v>102</v>
+      </c>
+      <c r="E3">
+        <v>142</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>19</v>
+      </c>
+      <c r="L3">
+        <v>64</v>
+      </c>
+      <c r="M3">
+        <v>70</v>
+      </c>
+      <c r="N3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>1253956</v>
+      </c>
+      <c r="C4">
+        <v>27119</v>
+      </c>
+      <c r="D4">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>19</v>
+      </c>
+      <c r="N4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>1257582</v>
+      </c>
+      <c r="C5">
+        <v>27175</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>1260762</v>
+      </c>
+      <c r="C6">
+        <v>27203</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>1268634</v>
+      </c>
+      <c r="C7">
+        <v>27515</v>
+      </c>
+      <c r="D7">
+        <v>126</v>
+      </c>
+      <c r="E7">
+        <v>185</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>21</v>
+      </c>
+      <c r="L7">
+        <v>62</v>
+      </c>
+      <c r="M7">
+        <v>94</v>
+      </c>
+      <c r="N7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>1281414</v>
+      </c>
+      <c r="C8">
+        <v>28019</v>
+      </c>
+      <c r="D8">
+        <v>240</v>
+      </c>
+      <c r="E8">
+        <v>325</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>42</v>
+      </c>
+      <c r="L8">
+        <v>139</v>
+      </c>
+      <c r="M8">
+        <v>172</v>
+      </c>
+      <c r="N8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>1294878</v>
+      </c>
+      <c r="C9">
+        <v>28554</v>
+      </c>
+      <c r="D9">
+        <v>221</v>
+      </c>
+      <c r="E9">
+        <v>311</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>34</v>
+      </c>
+      <c r="L9">
+        <v>126</v>
+      </c>
+      <c r="M9">
+        <v>148</v>
+      </c>
+      <c r="N9">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>1305774</v>
+      </c>
+      <c r="C10">
+        <v>28956</v>
+      </c>
+      <c r="D10">
+        <v>176</v>
+      </c>
+      <c r="E10">
+        <v>224</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>29</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>108</v>
+      </c>
+      <c r="N10">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>1312780</v>
+      </c>
+      <c r="C11">
+        <v>29058</v>
+      </c>
+      <c r="D11">
+        <v>47</v>
+      </c>
+      <c r="E11">
+        <v>55</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>18</v>
+      </c>
+      <c r="M11">
+        <v>31</v>
+      </c>
+      <c r="N11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>1318562</v>
+      </c>
+      <c r="C12">
+        <v>29119</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>38</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>15</v>
+      </c>
+      <c r="M12">
+        <v>21</v>
+      </c>
+      <c r="N12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>1322947</v>
+      </c>
+      <c r="C13">
+        <v>29161</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>14</v>
+      </c>
+      <c r="N13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>1330543</v>
+      </c>
+      <c r="C14">
+        <v>29502</v>
+      </c>
+      <c r="D14">
+        <v>142</v>
+      </c>
+      <c r="E14">
+        <v>199</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>24</v>
+      </c>
+      <c r="L14">
+        <v>78</v>
+      </c>
+      <c r="M14">
+        <v>96</v>
+      </c>
+      <c r="N14">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>1344763</v>
+      </c>
+      <c r="C15">
+        <v>30055</v>
+      </c>
+      <c r="D15">
+        <v>239</v>
+      </c>
+      <c r="E15">
+        <v>313</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>25</v>
+      </c>
+      <c r="L15">
+        <v>129</v>
+      </c>
+      <c r="M15">
+        <v>167</v>
+      </c>
+      <c r="N15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>1356882</v>
+      </c>
+      <c r="C16">
+        <v>30241</v>
+      </c>
+      <c r="D16">
+        <v>79</v>
+      </c>
+      <c r="E16">
+        <v>106</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+      <c r="L16">
+        <v>44</v>
+      </c>
+      <c r="M16">
+        <v>65</v>
+      </c>
+      <c r="N16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>1365645</v>
+      </c>
+      <c r="C17">
+        <v>30574</v>
+      </c>
+      <c r="D17">
+        <v>128</v>
+      </c>
+      <c r="E17">
+        <v>204</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>20</v>
+      </c>
+      <c r="L17">
+        <v>71</v>
+      </c>
+      <c r="M17">
+        <v>104</v>
+      </c>
+      <c r="N17">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>1376389</v>
+      </c>
+      <c r="C18">
+        <v>31011</v>
+      </c>
+      <c r="D18">
+        <v>197</v>
+      </c>
+      <c r="E18">
+        <v>241</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>12</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>80</v>
+      </c>
+      <c r="M18">
+        <v>125</v>
+      </c>
+      <c r="N18">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>1385522</v>
+      </c>
+      <c r="C19">
+        <v>31189</v>
+      </c>
+      <c r="D19">
+        <v>79</v>
+      </c>
+      <c r="E19">
+        <v>98</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>14</v>
+      </c>
+      <c r="L19">
+        <v>31</v>
+      </c>
+      <c r="M19">
+        <v>61</v>
+      </c>
+      <c r="N19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>1390385</v>
+      </c>
+      <c r="C20">
+        <v>31264</v>
+      </c>
+      <c r="D20">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <v>27</v>
+      </c>
+      <c r="N20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>1395779</v>
+      </c>
+      <c r="C21">
+        <v>31593</v>
+      </c>
+      <c r="D21">
+        <v>144</v>
+      </c>
+      <c r="E21">
+        <v>182</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>18</v>
+      </c>
+      <c r="L21">
+        <v>79</v>
+      </c>
+      <c r="M21">
+        <v>95</v>
+      </c>
+      <c r="N21">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>1404905</v>
+      </c>
+      <c r="C22">
+        <v>32074</v>
+      </c>
+      <c r="D22">
+        <v>222</v>
+      </c>
+      <c r="E22">
+        <v>258</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>16</v>
+      </c>
+      <c r="L22">
+        <v>109</v>
+      </c>
+      <c r="M22">
+        <v>134</v>
+      </c>
+      <c r="N22">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>1414362</v>
+      </c>
+      <c r="C23">
+        <v>32456</v>
+      </c>
+      <c r="D23">
+        <v>159</v>
+      </c>
+      <c r="E23">
+        <v>222</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>21</v>
+      </c>
+      <c r="L23">
+        <v>91</v>
+      </c>
+      <c r="M23">
+        <v>108</v>
+      </c>
+      <c r="N23">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>1422320</v>
+      </c>
+      <c r="C24">
+        <v>32844</v>
+      </c>
+      <c r="D24">
+        <v>173</v>
+      </c>
+      <c r="E24">
+        <v>212</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>23</v>
+      </c>
+      <c r="L24">
+        <v>88</v>
+      </c>
+      <c r="M24">
+        <v>122</v>
+      </c>
+      <c r="N24">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>1429612</v>
+      </c>
+      <c r="C25">
+        <v>33213</v>
+      </c>
+      <c r="D25">
+        <v>163</v>
+      </c>
+      <c r="E25">
+        <v>205</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>73</v>
+      </c>
+      <c r="M25">
+        <v>109</v>
+      </c>
+      <c r="N25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>1435582</v>
+      </c>
+      <c r="C26">
+        <v>33355</v>
+      </c>
+      <c r="D26">
+        <v>61</v>
+      </c>
+      <c r="E26">
+        <v>81</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>7</v>
+      </c>
+      <c r="L26">
+        <v>34</v>
+      </c>
+      <c r="M26">
+        <v>38</v>
+      </c>
+      <c r="N26">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27">
+        <v>1438914</v>
+      </c>
+      <c r="C27">
+        <v>33407</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>9</v>
+      </c>
+      <c r="M27">
+        <v>15</v>
+      </c>
+      <c r="N27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>1443804</v>
+      </c>
+      <c r="C28">
+        <v>33698</v>
+      </c>
+      <c r="D28">
+        <v>141</v>
+      </c>
+      <c r="E28">
+        <v>150</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <v>12</v>
+      </c>
+      <c r="L28">
+        <v>60</v>
+      </c>
+      <c r="M28">
+        <v>93</v>
+      </c>
+      <c r="N28">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>1450747</v>
+      </c>
+      <c r="C29">
+        <v>34141</v>
+      </c>
+      <c r="D29">
+        <v>203</v>
+      </c>
+      <c r="E29">
+        <v>239</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>9</v>
+      </c>
+      <c r="K29">
+        <v>29</v>
+      </c>
+      <c r="L29">
+        <v>79</v>
+      </c>
+      <c r="M29">
+        <v>153</v>
+      </c>
+      <c r="N29">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30">
+        <v>1457755</v>
+      </c>
+      <c r="C30">
+        <v>34561</v>
+      </c>
+      <c r="D30">
+        <v>167</v>
+      </c>
+      <c r="E30">
+        <v>251</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>12</v>
+      </c>
+      <c r="K30">
+        <v>19</v>
+      </c>
+      <c r="L30">
+        <v>82</v>
+      </c>
+      <c r="M30">
+        <v>141</v>
+      </c>
+      <c r="N30">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>1464448</v>
+      </c>
+      <c r="C31">
+        <v>34908</v>
+      </c>
+      <c r="D31">
+        <v>154</v>
+      </c>
+      <c r="E31">
+        <v>191</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>17</v>
+      </c>
+      <c r="L31">
+        <v>73</v>
+      </c>
+      <c r="M31">
+        <v>94</v>
+      </c>
+      <c r="N31">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32">
+        <v>1470879</v>
+      </c>
+      <c r="C32">
+        <v>35253</v>
+      </c>
+      <c r="D32">
+        <v>160</v>
+      </c>
+      <c r="E32">
+        <v>186</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32">
+        <v>25</v>
+      </c>
+      <c r="L32">
+        <v>75</v>
+      </c>
+      <c r="M32">
+        <v>123</v>
+      </c>
+      <c r="N32">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>1475445</v>
+      </c>
+      <c r="C33">
+        <v>35363</v>
+      </c>
+      <c r="D33">
+        <v>51</v>
+      </c>
+      <c r="E33">
+        <v>59</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>8</v>
+      </c>
+      <c r="L33">
+        <v>25</v>
+      </c>
+      <c r="M33">
+        <v>36</v>
+      </c>
+      <c r="N33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34">
+        <v>1478119</v>
+      </c>
+      <c r="C34">
+        <v>35401</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>29</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>19</v>
+      </c>
+      <c r="N34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35">
+        <v>1482722</v>
+      </c>
+      <c r="C35">
+        <v>35665</v>
+      </c>
+      <c r="D35">
+        <v>118</v>
+      </c>
+      <c r="E35">
+        <v>145</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>16</v>
+      </c>
+      <c r="L35">
+        <v>53</v>
+      </c>
+      <c r="M35">
+        <v>77</v>
+      </c>
+      <c r="N35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36">
+        <v>1489512</v>
+      </c>
+      <c r="C36">
+        <v>36054</v>
+      </c>
+      <c r="D36">
+        <v>179</v>
+      </c>
+      <c r="E36">
+        <v>210</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <v>17</v>
+      </c>
+      <c r="L36">
+        <v>86</v>
+      </c>
+      <c r="M36">
+        <v>109</v>
+      </c>
+      <c r="N36">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37">
+        <v>1496665</v>
+      </c>
+      <c r="C37">
+        <v>36443</v>
+      </c>
+      <c r="D37">
+        <v>172</v>
+      </c>
+      <c r="E37">
+        <v>216</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>15</v>
+      </c>
+      <c r="L37">
+        <v>80</v>
+      </c>
+      <c r="M37">
+        <v>117</v>
+      </c>
+      <c r="N37">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38">
+        <v>1502810</v>
+      </c>
+      <c r="C38">
+        <v>36780</v>
+      </c>
+      <c r="D38">
+        <v>149</v>
+      </c>
+      <c r="E38">
+        <v>187</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <v>17</v>
+      </c>
+      <c r="L38">
+        <v>84</v>
+      </c>
+      <c r="M38">
+        <v>99</v>
+      </c>
+      <c r="N38">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39">
+        <v>1508674</v>
+      </c>
+      <c r="C39">
+        <v>37082</v>
+      </c>
+      <c r="D39">
+        <v>129</v>
+      </c>
+      <c r="E39">
+        <v>174</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>15</v>
+      </c>
+      <c r="L39">
+        <v>64</v>
+      </c>
+      <c r="M39">
+        <v>92</v>
+      </c>
+      <c r="N39">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40">
+        <v>1513385</v>
+      </c>
+      <c r="C40">
+        <v>37180</v>
+      </c>
+      <c r="D40">
+        <v>44</v>
+      </c>
+      <c r="E40">
+        <v>54</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>6</v>
+      </c>
+      <c r="L40">
+        <v>25</v>
+      </c>
+      <c r="M40">
+        <v>28</v>
+      </c>
+      <c r="N40">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>1515889</v>
+      </c>
+      <c r="C41">
+        <v>37222</v>
+      </c>
+      <c r="D41">
+        <v>22</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>8</v>
+      </c>
+      <c r="M41">
+        <v>8</v>
+      </c>
+      <c r="N41">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42">
+        <v>1520215</v>
+      </c>
+      <c r="C42">
+        <v>37476</v>
+      </c>
+      <c r="D42">
+        <v>107</v>
+      </c>
+      <c r="E42">
+        <v>146</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>8</v>
+      </c>
+      <c r="K42">
+        <v>13</v>
+      </c>
+      <c r="L42">
+        <v>55</v>
+      </c>
+      <c r="M42">
+        <v>92</v>
+      </c>
+      <c r="N42">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>1527016</v>
+      </c>
+      <c r="C43">
+        <v>37897</v>
+      </c>
+      <c r="D43">
+        <v>193</v>
+      </c>
+      <c r="E43">
+        <v>228</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>7</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+      <c r="K43">
+        <v>14</v>
+      </c>
+      <c r="L43">
+        <v>97</v>
+      </c>
+      <c r="M43">
+        <v>133</v>
+      </c>
+      <c r="N43">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44">
+        <v>1533511</v>
+      </c>
+      <c r="C44">
+        <v>38344</v>
+      </c>
+      <c r="D44">
+        <v>182</v>
+      </c>
+      <c r="E44">
+        <v>262</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>9</v>
+      </c>
+      <c r="J44">
+        <v>6</v>
+      </c>
+      <c r="K44">
+        <v>34</v>
+      </c>
+      <c r="L44">
+        <v>108</v>
+      </c>
+      <c r="M44">
+        <v>130</v>
+      </c>
+      <c r="N44">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>1539564</v>
+      </c>
+      <c r="C45">
+        <v>38712</v>
+      </c>
+      <c r="D45">
+        <v>154</v>
+      </c>
+      <c r="E45">
+        <v>214</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>16</v>
+      </c>
+      <c r="K45">
+        <v>17</v>
+      </c>
+      <c r="L45">
+        <v>69</v>
+      </c>
+      <c r="M45">
+        <v>129</v>
+      </c>
+      <c r="N45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>1545530</v>
+      </c>
+      <c r="C46">
+        <v>38994</v>
+      </c>
+      <c r="D46">
+        <v>131</v>
+      </c>
+      <c r="E46">
+        <v>151</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>6</v>
+      </c>
+      <c r="K46">
+        <v>26</v>
+      </c>
+      <c r="L46">
+        <v>55</v>
+      </c>
+      <c r="M46">
+        <v>86</v>
+      </c>
+      <c r="N46">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47">
+        <v>1550255</v>
+      </c>
+      <c r="C47">
+        <v>39087</v>
+      </c>
+      <c r="D47">
+        <v>37</v>
+      </c>
+      <c r="E47">
+        <v>56</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <v>24</v>
+      </c>
+      <c r="M47">
+        <v>24</v>
+      </c>
+      <c r="N47">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48">
+        <v>1552686</v>
+      </c>
+      <c r="C48">
+        <v>39132</v>
+      </c>
+      <c r="D48">
+        <v>22</v>
+      </c>
+      <c r="E48">
+        <v>23</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>6</v>
+      </c>
+      <c r="M48">
+        <v>14</v>
+      </c>
+      <c r="N48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49">
+        <v>1556685</v>
+      </c>
+      <c r="C49">
+        <v>39360</v>
+      </c>
+      <c r="D49">
+        <v>95</v>
+      </c>
+      <c r="E49">
+        <v>132</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>18</v>
+      </c>
+      <c r="L49">
+        <v>42</v>
+      </c>
+      <c r="M49">
+        <v>77</v>
+      </c>
+      <c r="N49">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50">
+        <v>1563645</v>
+      </c>
+      <c r="C50">
+        <v>39721</v>
+      </c>
+      <c r="D50">
+        <v>126</v>
+      </c>
+      <c r="E50">
+        <v>234</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>19</v>
+      </c>
+      <c r="L50">
+        <v>90</v>
+      </c>
+      <c r="M50">
+        <v>111</v>
+      </c>
+      <c r="N50">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51">
         <v>1570658</v>
       </c>
-      <c r="B2">
+      <c r="C51">
         <v>40177</v>
       </c>
-      <c r="C2">
+      <c r="D51">
         <v>212</v>
       </c>
-      <c r="D2">
+      <c r="E51">
         <v>244</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>4</v>
       </c>
-      <c r="I2">
+      <c r="J51">
         <v>7</v>
       </c>
-      <c r="J2">
+      <c r="K51">
         <v>26</v>
       </c>
-      <c r="K2">
+      <c r="L51">
         <v>101</v>
       </c>
-      <c r="L2">
+      <c r="M51">
         <v>126</v>
       </c>
-      <c r="M2">
+      <c r="N51">
         <v>191</v>
-      </c>
-      <c r="N2">
-        <v>1324101</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/global.xlsx
+++ b/global.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>date</t>
   </si>
@@ -25,10 +25,10 @@
     <t>total_deaths</t>
   </si>
   <si>
-    <t>deaths_w</t>
-  </si>
-  <si>
-    <t>deaths_m</t>
+    <t>new_deaths_w</t>
+  </si>
+  <si>
+    <t>new_deaths_m</t>
   </si>
   <si>
     <t>deaths_0-10</t>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>deaths_81</t>
+  </si>
+  <si>
+    <t>new_deaths</t>
   </si>
   <si>
     <t>2020-12-24</t>
@@ -563,13 +566,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,10 +615,13 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1240002</v>
@@ -656,10 +662,13 @@
       <c r="N2">
         <v>208</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>1248924</v>
@@ -700,10 +709,13 @@
       <c r="N3">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>1253956</v>
@@ -744,10 +756,13 @@
       <c r="N4">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>1257582</v>
@@ -788,10 +803,13 @@
       <c r="N5">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>1260762</v>
@@ -832,10 +850,13 @@
       <c r="N6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>1268634</v>
@@ -876,10 +897,13 @@
       <c r="N7">
         <v>121</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>1281414</v>
@@ -920,10 +944,13 @@
       <c r="N8">
         <v>197</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>1294878</v>
@@ -964,10 +991,13 @@
       <c r="N9">
         <v>210</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>1305774</v>
@@ -1008,10 +1038,13 @@
       <c r="N10">
         <v>153</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>1312780</v>
@@ -1052,10 +1085,13 @@
       <c r="N11">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>1318562</v>
@@ -1096,10 +1132,13 @@
       <c r="N12">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>1322947</v>
@@ -1140,10 +1179,13 @@
       <c r="N13">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>1330543</v>
@@ -1184,10 +1226,13 @@
       <c r="N14">
         <v>139</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>1344763</v>
@@ -1228,10 +1273,13 @@
       <c r="N15">
         <v>210</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>1356882</v>
@@ -1272,10 +1320,13 @@
       <c r="N16">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>1365645</v>
@@ -1316,10 +1367,13 @@
       <c r="N17">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>1376389</v>
@@ -1360,10 +1414,13 @@
       <c r="N18">
         <v>201</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>1385522</v>
@@ -1404,10 +1461,13 @@
       <c r="N19">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>1390385</v>
@@ -1448,10 +1508,13 @@
       <c r="N20">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>1395779</v>
@@ -1492,10 +1555,13 @@
       <c r="N21">
         <v>120</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>1404905</v>
@@ -1536,10 +1602,13 @@
       <c r="N22">
         <v>213</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>1414362</v>
@@ -1580,10 +1649,13 @@
       <c r="N23">
         <v>147</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>1422320</v>
@@ -1624,10 +1696,13 @@
       <c r="N24">
         <v>142</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>1429612</v>
@@ -1668,10 +1743,13 @@
       <c r="N25">
         <v>154</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>1435582</v>
@@ -1712,10 +1790,13 @@
       <c r="N26">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>1438914</v>
@@ -1756,10 +1837,13 @@
       <c r="N27">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>1443804</v>
@@ -1800,10 +1884,13 @@
       <c r="N28">
         <v>116</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>1450747</v>
@@ -1844,10 +1931,13 @@
       <c r="N29">
         <v>171</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>1457755</v>
@@ -1888,10 +1978,13 @@
       <c r="N30">
         <v>159</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>1464448</v>
@@ -1932,10 +2025,13 @@
       <c r="N31">
         <v>152</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>1470879</v>
@@ -1976,10 +2072,13 @@
       <c r="N32">
         <v>113</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>1475445</v>
@@ -2020,10 +2119,13 @@
       <c r="N33">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>1478119</v>
@@ -2064,10 +2166,13 @@
       <c r="N34">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <v>1482722</v>
@@ -2108,10 +2213,13 @@
       <c r="N35">
         <v>114</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>1489512</v>
@@ -2152,10 +2260,13 @@
       <c r="N36">
         <v>167</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <v>1496665</v>
@@ -2196,10 +2307,13 @@
       <c r="N37">
         <v>170</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>1502810</v>
@@ -2240,10 +2354,13 @@
       <c r="N38">
         <v>129</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39">
         <v>1508674</v>
@@ -2284,10 +2401,13 @@
       <c r="N39">
         <v>129</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>1513385</v>
@@ -2328,10 +2448,13 @@
       <c r="N40">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <v>1515889</v>
@@ -2372,10 +2495,13 @@
       <c r="N41">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B42">
         <v>1520215</v>
@@ -2416,10 +2542,13 @@
       <c r="N42">
         <v>84</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>1527016</v>
@@ -2460,10 +2589,13 @@
       <c r="N43">
         <v>161</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>1533511</v>
@@ -2504,10 +2636,13 @@
       <c r="N44">
         <v>155</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>1539564</v>
@@ -2548,10 +2683,13 @@
       <c r="N45">
         <v>133</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>1545530</v>
@@ -2592,10 +2730,13 @@
       <c r="N46">
         <v>106</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <v>1550255</v>
@@ -2636,10 +2777,13 @@
       <c r="N47">
         <v>39</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="O47">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B48">
         <v>1552686</v>
@@ -2680,10 +2824,13 @@
       <c r="N48">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49">
         <v>1556685</v>
@@ -2724,10 +2871,13 @@
       <c r="N49">
         <v>85</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50">
         <v>1563645</v>
@@ -2768,10 +2918,13 @@
       <c r="N50">
         <v>132</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>1570658</v>
@@ -2811,6 +2964,9 @@
       </c>
       <c r="N51">
         <v>191</v>
+      </c>
+      <c r="O51">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
